--- a/medicine/Mort/Fossoyeur/Fossoyeur.xlsx
+++ b/medicine/Mort/Fossoyeur/Fossoyeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fossoyeur est un métier du secteur des pompes funèbres consistant à travailler dans un cimetière. Le fossoyeur participe aux inhumations en creusant les fosses et en y introduisant les défunts dans les tombes. Il procède également aux exhumations, aux ouvertures et fermetures des caveaux et des cases des columbariums. Ils sont aussi chargés d'activités secondaires : entretien des chemins du cimetière et des tombes, travaux de jardinage.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce métier était mal considéré en France d’Ancien Régime, il était d'habitude confié à une certaine catégorie de population mise à l’écart, les cagots[1]. Dans ce pays, les fossoyeurs actuels sont employés par les communes et font partie de la fonction publique territoriale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce métier était mal considéré en France d’Ancien Régime, il était d'habitude confié à une certaine catégorie de population mise à l’écart, les cagots. Dans ce pays, les fossoyeurs actuels sont employés par les communes et font partie de la fonction publique territoriale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fossoyeurs imaginaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Undertaker, catcheur professionnel (le terme Undertaker signifie d'ailleurs fossoyeur en anglais).
 Pierre Tombal, personnage principal de la bande dessinée homonyme.
@@ -586,7 +602,9 @@
           <t>Dans la littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« C'est le tango des joyeux militaires, des gais vainqueurs de partout et d'ailleurs, c'est le tango des fameux va-t-en-guerre, c'est le tango de tous les fossoyeurs », Les Joyeux bouchers, Boris Vian.
 « Fossoyeur, il est beau de contempler les ruines des cités ; mais il est plus beau de contempler les ruines des humains ! », Les Chants de Maldoror, Comte de Lautréamont
@@ -618,7 +636,9 @@
           <t>Dans la chanson</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fossoyeur, chanson de La Mauvaise Réputation, le premier album de l'auteur-compositeur-interprète Georges Brassens, sorti en novembre 1952.
 Monsieur Marcel, chanson n°7 de l'album Repenti de l'auteur-compositeur-interprète Renan Luce, sorti en septembre 2006 narre la vie d'un fossoyeur narcoleptique.
@@ -650,7 +670,9 @@
           <t>Dans les séries</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la série Prison Break, Fernando Sucre devient fossoyeur durant la saison 3 à la prison de Sona, au Panama.
 </t>
